--- a/.transfer your modding stuff here/### Numahr/Concept and Design/Laws & Government/Government design.xlsx
+++ b/.transfer your modding stuff here/### Numahr/Concept and Design/Laws & Government/Government design.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="121">
   <si>
     <t>Goverment</t>
   </si>
@@ -384,6 +384,12 @@
   </si>
   <si>
     <t xml:space="preserve">anarchist_government </t>
+  </si>
+  <si>
+    <t>Demagogic</t>
+  </si>
+  <si>
+    <t>demagogic_government</t>
   </si>
 </sst>
 </file>
@@ -506,7 +512,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -861,13 +878,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:GB21"/>
+  <dimension ref="A2:GB22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="3" ySplit="4" topLeftCell="D21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="R21" sqref="R21"/>
+      <selection pane="bottomRight" activeCell="AP3" sqref="AP3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2291,7 +2308,7 @@
         <v>65</v>
       </c>
       <c r="J21" s="2"/>
-      <c r="L21" s="17" t="s">
+      <c r="K21" s="17" t="s">
         <v>117</v>
       </c>
       <c r="M21" s="2"/>
@@ -2404,23 +2421,80 @@
       <c r="BY21" s="4"/>
       <c r="BZ21" s="4"/>
     </row>
+    <row r="22" spans="1:78" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>101</v>
+      </c>
+      <c r="B22" t="s">
+        <v>119</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K22" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q22">
+        <v>2</v>
+      </c>
+      <c r="U22" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI22" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AN22" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO22" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP22" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="E12">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="notEqual">
+      <formula>$E$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E19">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="notEqual">
       <formula>$E$5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E19">
+  <conditionalFormatting sqref="E20">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="notEqual">
       <formula>$E$5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E20">
+  <conditionalFormatting sqref="E21">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="notEqual">
       <formula>$E$5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E21">
+  <conditionalFormatting sqref="E22">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="notEqual">
       <formula>$E$5</formula>
     </cfRule>

--- a/.transfer your modding stuff here/### Numahr/Concept and Design/Laws & Government/Government design.xlsx
+++ b/.transfer your modding stuff here/### Numahr/Concept and Design/Laws & Government/Government design.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="122">
   <si>
     <t>Goverment</t>
   </si>
@@ -390,6 +390,9 @@
   </si>
   <si>
     <t>demagogic_government</t>
+  </si>
+  <si>
+    <t>All normal</t>
   </si>
 </sst>
 </file>
@@ -881,10 +884,10 @@
   <dimension ref="A2:GB22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="E15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AP3" sqref="AP3"/>
+      <selection pane="bottomRight" activeCell="BD3" sqref="BD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2472,6 +2475,21 @@
       <c r="AP22" s="5" t="s">
         <v>61</v>
       </c>
+      <c r="AS22" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="AZ22" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD22" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="BY22" t="s">
+        <v>61</v>
+      </c>
+      <c r="BZ22" t="s">
+        <v>61</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E12">
